--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypython\math_modeling\lake\envlake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypython\math_modeling\lake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45512A35-A49F-4AD1-B6C5-1B15611792FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6987C2-0312-43AB-981E-DDFE60BFF33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
